--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27100" yWindow="0" windowWidth="24960" windowHeight="24480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1881,7 +1881,9 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11">
@@ -1911,7 +1913,9 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11">
@@ -1941,7 +1945,9 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11">
+        <v>1</v>
+      </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11">
@@ -1990,7 +1996,9 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11">
@@ -2020,7 +2028,9 @@
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11">
@@ -2069,7 +2079,9 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="11">
+        <v>1</v>
+      </c>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11">
@@ -2099,7 +2111,9 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="11">
+        <v>1</v>
+      </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11">
@@ -2164,7 +2178,7 @@
       </c>
       <c r="H50" s="14">
         <f t="shared" si="0"/>
-        <v>0.73076923076923073</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="I50" s="13">
         <f t="shared" si="0"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10980" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Output</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>string concenation</t>
-  </si>
-  <si>
     <t>string interpolation</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>array size</t>
   </si>
   <si>
-    <t>array enumeration</t>
-  </si>
-  <si>
     <t>enumerate keys</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
   </si>
   <si>
     <t>Language Score</t>
+  </si>
+  <si>
+    <t>enumerate (one-line)</t>
+  </si>
+  <si>
+    <t>string concatenation</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -383,6 +383,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -419,7 +423,7 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +431,8 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -434,6 +440,8 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
@@ -764,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -793,43 +801,43 @@
     </row>
     <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -916,7 +924,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
@@ -928,7 +936,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -941,14 +949,16 @@
       <c r="M6" s="11">
         <v>1</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
       <c r="O6" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
@@ -960,10 +970,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
       <c r="K7" s="11">
         <v>1</v>
       </c>
@@ -973,14 +985,16 @@
       <c r="M7" s="11">
         <v>1</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
       <c r="O7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
@@ -999,7 +1013,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11">
@@ -1014,7 +1028,9 @@
         <v>1</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
       <c r="K9" s="11">
         <v>1</v>
       </c>
@@ -1024,14 +1040,16 @@
       <c r="M9" s="11">
         <v>1</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
       <c r="O9" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11">
@@ -1046,7 +1064,9 @@
         <v>1</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
       <c r="K10" s="11">
         <v>1</v>
       </c>
@@ -1056,14 +1076,16 @@
       <c r="M10" s="11">
         <v>1</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
       <c r="O10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
@@ -1078,7 +1100,9 @@
         <v>1</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
       <c r="K11" s="11">
         <v>1</v>
       </c>
@@ -1088,14 +1112,16 @@
       <c r="M11" s="11">
         <v>1</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
       <c r="O11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -1112,7 +1138,9 @@
         <v>1</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
       <c r="K12" s="11">
         <v>1</v>
       </c>
@@ -1122,14 +1150,16 @@
       <c r="M12" s="11">
         <v>1</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
       <c r="O12" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
@@ -1148,7 +1178,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
@@ -1163,7 +1193,9 @@
         <v>1</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
       <c r="K14" s="11">
         <v>1</v>
       </c>
@@ -1173,14 +1205,16 @@
       <c r="M14" s="11">
         <v>1</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
       <c r="O14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
@@ -1195,7 +1229,9 @@
         <v>1</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
       <c r="K15" s="11">
         <v>1</v>
       </c>
@@ -1205,14 +1241,16 @@
       <c r="M15" s="11">
         <v>1</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
       <c r="O15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
@@ -1231,7 +1269,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1246,7 +1284,9 @@
         <v>1</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
       <c r="K17" s="11">
         <v>1</v>
       </c>
@@ -1256,14 +1296,16 @@
       <c r="M17" s="11">
         <v>1</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
       <c r="O17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -1278,7 +1320,9 @@
         <v>1</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
       <c r="K18" s="11">
         <v>1</v>
       </c>
@@ -1288,14 +1332,16 @@
       <c r="M18" s="11">
         <v>1</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
       <c r="O18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1310,7 +1356,9 @@
         <v>1</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
       <c r="K19" s="11">
         <v>1</v>
       </c>
@@ -1320,14 +1368,16 @@
       <c r="M19" s="11">
         <v>1</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
       <c r="O19" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11">
@@ -1342,7 +1392,9 @@
         <v>0</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
       <c r="K20" s="11">
         <v>1</v>
       </c>
@@ -1352,14 +1404,16 @@
       <c r="M20" s="11">
         <v>1</v>
       </c>
-      <c r="N20" s="11"/>
+      <c r="N20" s="11">
+        <v>1</v>
+      </c>
       <c r="O20" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
@@ -1378,7 +1432,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
@@ -1393,7 +1447,9 @@
         <v>1</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
       <c r="K22" s="11">
         <v>1</v>
       </c>
@@ -1403,14 +1459,16 @@
       <c r="M22" s="11">
         <v>1</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="11">
+        <v>1</v>
+      </c>
       <c r="O22" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1425,7 +1483,9 @@
         <v>1</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
       <c r="K23" s="11">
         <v>1</v>
       </c>
@@ -1435,14 +1495,16 @@
       <c r="M23" s="11">
         <v>1</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
       <c r="O23" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
@@ -1457,7 +1519,9 @@
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
       <c r="K24" s="11">
         <v>1</v>
       </c>
@@ -1467,14 +1531,16 @@
       <c r="M24" s="11">
         <v>1</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="11">
+        <v>1</v>
+      </c>
       <c r="O24" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
@@ -1493,7 +1559,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="B26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1508,7 +1574,9 @@
         <v>1</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
       <c r="K26" s="11">
         <v>1</v>
       </c>
@@ -1518,14 +1586,16 @@
       <c r="M26" s="11">
         <v>1</v>
       </c>
-      <c r="N26" s="11"/>
+      <c r="N26" s="11">
+        <v>1</v>
+      </c>
       <c r="O26" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1540,7 +1610,9 @@
         <v>1</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
       <c r="K27" s="11">
         <v>1</v>
       </c>
@@ -1550,14 +1622,16 @@
       <c r="M27" s="11">
         <v>1</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="11">
+        <v>1</v>
+      </c>
       <c r="O27" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="B28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11">
@@ -1572,7 +1646,9 @@
         <v>1</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
       <c r="K28" s="11">
         <v>1</v>
       </c>
@@ -1582,14 +1658,16 @@
       <c r="M28" s="11">
         <v>1</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="11">
+        <v>1</v>
+      </c>
       <c r="O28" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1604,7 +1682,9 @@
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
       <c r="K29" s="11">
         <v>1</v>
       </c>
@@ -1614,65 +1694,63 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="11">
+        <v>1</v>
+      </c>
       <c r="O29" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
+      <c r="B30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11">
-        <v>1</v>
-      </c>
-      <c r="M31" s="11">
-        <v>1</v>
-      </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11">
-        <v>0</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15">
       <c r="B32" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
@@ -1687,7 +1765,9 @@
         <v>1</v>
       </c>
       <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
       <c r="K32" s="11">
         <v>1</v>
       </c>
@@ -1697,14 +1777,16 @@
       <c r="M32" s="11">
         <v>1</v>
       </c>
-      <c r="N32" s="11"/>
+      <c r="N32" s="11">
+        <v>1</v>
+      </c>
       <c r="O32" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="B33" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
@@ -1716,10 +1798,12 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="11">
+        <v>1</v>
+      </c>
       <c r="K33" s="11">
         <v>1</v>
       </c>
@@ -1729,14 +1813,16 @@
       <c r="M33" s="11">
         <v>1</v>
       </c>
-      <c r="N33" s="11"/>
+      <c r="N33" s="11">
+        <v>1</v>
+      </c>
       <c r="O33" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="B34" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
@@ -1751,7 +1837,9 @@
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="11">
+        <v>1</v>
+      </c>
       <c r="K34" s="11">
         <v>1</v>
       </c>
@@ -1761,14 +1849,16 @@
       <c r="M34" s="11">
         <v>1</v>
       </c>
-      <c r="N34" s="11"/>
+      <c r="N34" s="11">
+        <v>1</v>
+      </c>
       <c r="O34" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11">
@@ -1783,7 +1873,9 @@
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
       <c r="K35" s="11">
         <v>1</v>
       </c>
@@ -1793,120 +1885,126 @@
       <c r="M35" s="11">
         <v>1</v>
       </c>
-      <c r="N35" s="11"/>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
       <c r="O35" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
+      <c r="B36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="B37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11">
-        <v>1</v>
-      </c>
-      <c r="L37" s="11">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11">
-        <v>1</v>
-      </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11">
-        <v>1</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
+      <c r="B38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11">
-        <v>1</v>
-      </c>
-      <c r="L39" s="11">
-        <v>1</v>
-      </c>
-      <c r="M39" s="11">
-        <v>1</v>
-      </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11">
-        <v>1</v>
-      </c>
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15">
       <c r="B40" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11">
         <v>1</v>
@@ -1934,7 +2032,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11">
@@ -1965,59 +2063,59 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
+      <c r="B42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11">
+        <v>1</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11">
+        <v>1</v>
+      </c>
+      <c r="L42" s="11">
+        <v>1</v>
+      </c>
+      <c r="M42" s="11">
+        <v>1</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="B43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
-      <c r="L43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="11">
-        <v>1</v>
-      </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11">
-        <v>1</v>
-      </c>
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:15">
       <c r="B44" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2029,7 +2127,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -2044,63 +2142,63 @@
       </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
+      <c r="B45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
+      <c r="L45" s="11">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11">
+        <v>1</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="B46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11">
-        <v>1</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11">
-        <v>1</v>
-      </c>
-      <c r="L46" s="11">
-        <v>1</v>
-      </c>
-      <c r="M46" s="11">
-        <v>1</v>
-      </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11">
-        <v>1</v>
-      </c>
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
     </row>
     <row r="47" spans="1:15">
       <c r="B47" s="6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11">
@@ -2132,7 +2230,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="B48" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2143,80 +2241,112 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="11">
+        <v>1</v>
+      </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="K48" s="11">
+        <v>1</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1</v>
+      </c>
       <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="12">
-        <f>SUM(C3:C47)/COUNT(C3:C47)</f>
-        <v>1</v>
-      </c>
-      <c r="D50" s="14">
-        <f>SUM(D3:D48)/COUNT(D3:D48)</f>
+      <c r="O48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="12">
+        <f>SUM(C3:C48)/COUNT(C3:C48)</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="14">
+        <f>SUM(D3:D49)/COUNT(D3:D49)</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="E50" s="14">
-        <f t="shared" ref="E50:O50" si="0">SUM(E3:E48)/COUNT(E3:E48)</f>
+      <c r="E51" s="14">
+        <f>SUM(E3:E49)/COUNT(E3:E49)</f>
         <v>0.61764705882352944</v>
       </c>
-      <c r="F50" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="14">
-        <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
-      </c>
-      <c r="I50" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K50" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L50" s="14">
-        <f t="shared" si="0"/>
+      <c r="F51" s="13">
+        <f>SUM(F3:F49)/COUNT(F3:F49)</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="13">
+        <f>SUM(G3:G49)/COUNT(G3:G49)</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="14">
+        <f>SUM(H3:H49)/COUNT(H3:H49)</f>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="I51" s="13">
+        <f>SUM(I3:I49)/COUNT(I3:I49)</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="13">
+        <f>SUM(J3:J49)/COUNT(J3:J49)</f>
+        <v>0.92</v>
+      </c>
+      <c r="K51" s="14">
+        <f>SUM(K3:K49)/COUNT(K3:K49)</f>
+        <v>1</v>
+      </c>
+      <c r="L51" s="14">
+        <f>SUM(L3:L49)/COUNT(L3:L49)</f>
         <v>0.93939393939393945</v>
       </c>
-      <c r="M50" s="14">
-        <f t="shared" si="0"/>
+      <c r="M51" s="14">
+        <f>SUM(M3:M49)/COUNT(M3:M49)</f>
         <v>0.96969696969696972</v>
       </c>
-      <c r="N50" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="14">
-        <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53"/>
+      <c r="N51" s="14">
+        <f>SUM(N3:N49)/COUNT(N3:N49)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="O51" s="14">
+        <f>SUM(O3:O49)/COUNT(O3:O49)</f>
+        <v>0.73529411764705888</v>
+      </c>
     </row>
     <row r="54" spans="2:15">
       <c r="B54"/>
     </row>
     <row r="55" spans="2:15">
       <c r="B55"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -938,7 +938,9 @@
       <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11">
         <v>1</v>
@@ -972,7 +974,9 @@
       <c r="H7" s="11">
         <v>1</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
       <c r="J7" s="11">
         <v>1</v>
       </c>
@@ -1027,7 +1031,9 @@
       <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
       <c r="J9" s="11">
         <v>1</v>
       </c>
@@ -1063,7 +1069,9 @@
       <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
       <c r="J10" s="11">
         <v>1</v>
       </c>
@@ -1099,7 +1107,9 @@
       <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
       <c r="J11" s="11">
         <v>1</v>
       </c>
@@ -1137,7 +1147,9 @@
       <c r="H12" s="11">
         <v>1</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
       <c r="J12" s="11">
         <v>1</v>
       </c>
@@ -1192,7 +1204,9 @@
       <c r="H14" s="11">
         <v>1</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
       <c r="J14" s="11">
         <v>1</v>
       </c>
@@ -1228,7 +1242,9 @@
       <c r="H15" s="11">
         <v>1</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
       <c r="J15" s="11">
         <v>1</v>
       </c>
@@ -1283,7 +1299,9 @@
       <c r="H17" s="11">
         <v>1</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
       <c r="J17" s="11">
         <v>1</v>
       </c>
@@ -1319,7 +1337,9 @@
       <c r="H18" s="11">
         <v>1</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
       <c r="J18" s="11">
         <v>1</v>
       </c>
@@ -1355,7 +1375,9 @@
       <c r="H19" s="11">
         <v>1</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
       <c r="J19" s="11">
         <v>1</v>
       </c>
@@ -1391,7 +1413,9 @@
       <c r="H20" s="11">
         <v>0</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
       <c r="J20" s="11">
         <v>0</v>
       </c>
@@ -1446,7 +1470,9 @@
       <c r="H22" s="11">
         <v>1</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
       <c r="J22" s="11">
         <v>1</v>
       </c>
@@ -1482,7 +1508,9 @@
       <c r="H23" s="11">
         <v>1</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
       <c r="J23" s="11">
         <v>1</v>
       </c>
@@ -1518,7 +1546,9 @@
       <c r="H24" s="11">
         <v>0</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
       <c r="J24" s="11">
         <v>1</v>
       </c>
@@ -1573,7 +1603,9 @@
       <c r="H26" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
       <c r="J26" s="11">
         <v>1</v>
       </c>
@@ -1609,7 +1641,9 @@
       <c r="H27" s="11">
         <v>1</v>
       </c>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
       <c r="J27" s="11">
         <v>1</v>
       </c>
@@ -1645,7 +1679,9 @@
       <c r="H28" s="11">
         <v>1</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
       <c r="J28" s="11">
         <v>1</v>
       </c>
@@ -1681,7 +1717,9 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11">
+        <v>1</v>
+      </c>
       <c r="J29" s="11">
         <v>0</v>
       </c>
@@ -1713,7 +1751,9 @@
       <c r="H30" s="11">
         <v>0</v>
       </c>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
       <c r="J30" s="11">
         <v>1</v>
       </c>
@@ -1764,7 +1804,9 @@
       <c r="H32" s="11">
         <v>1</v>
       </c>
-      <c r="I32" s="11"/>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
       <c r="J32" s="11">
         <v>1</v>
       </c>
@@ -1800,7 +1842,9 @@
       <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
       <c r="J33" s="11">
         <v>1</v>
       </c>
@@ -1836,7 +1880,9 @@
       <c r="H34" s="11">
         <v>0</v>
       </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="11">
+        <v>1</v>
+      </c>
       <c r="J34" s="11">
         <v>1</v>
       </c>
@@ -1872,7 +1918,9 @@
       <c r="H35" s="11">
         <v>0</v>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
       <c r="J35" s="11">
         <v>1</v>
       </c>
@@ -1908,7 +1956,9 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11"/>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
       <c r="J36" s="11">
         <v>1</v>
       </c>
@@ -2291,51 +2341,51 @@
         <v>1</v>
       </c>
       <c r="D51" s="14">
-        <f>SUM(D3:D49)/COUNT(D3:D49)</f>
+        <f t="shared" ref="D51:O51" si="0">SUM(D3:D49)/COUNT(D3:D49)</f>
         <v>0.29411764705882354</v>
       </c>
       <c r="E51" s="14">
-        <f>SUM(E3:E49)/COUNT(E3:E49)</f>
+        <f t="shared" si="0"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="F51" s="13">
-        <f>SUM(F3:F49)/COUNT(F3:F49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G51" s="13">
-        <f>SUM(G3:G49)/COUNT(G3:G49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H51" s="14">
-        <f>SUM(H3:H49)/COUNT(H3:H49)</f>
+        <f t="shared" si="0"/>
         <v>0.73529411764705888</v>
       </c>
-      <c r="I51" s="13">
-        <f>SUM(I3:I49)/COUNT(I3:I49)</f>
+      <c r="I51" s="14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J51" s="13">
-        <f>SUM(J3:J49)/COUNT(J3:J49)</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="K51" s="14">
-        <f>SUM(K3:K49)/COUNT(K3:K49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L51" s="14">
-        <f>SUM(L3:L49)/COUNT(L3:L49)</f>
+        <f t="shared" si="0"/>
         <v>0.93939393939393945</v>
       </c>
       <c r="M51" s="14">
-        <f>SUM(M3:M49)/COUNT(M3:M49)</f>
+        <f t="shared" si="0"/>
         <v>0.96969696969696972</v>
       </c>
       <c r="N51" s="14">
-        <f>SUM(N3:N49)/COUNT(N3:N49)</f>
+        <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="O51" s="14">
-        <f>SUM(O3:O49)/COUNT(O3:O49)</f>
+        <f t="shared" si="0"/>
         <v>0.73529411764705888</v>
       </c>
     </row>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Output</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>string concatenation</t>
+  </si>
+  <si>
+    <t>POSIX char class</t>
   </si>
 </sst>
 </file>
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -934,7 +937,9 @@
         <v>0</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
       <c r="H6" s="11">
         <v>0</v>
       </c>
@@ -970,7 +975,9 @@
         <v>1</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
@@ -1027,7 +1034,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
@@ -1065,7 +1074,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
@@ -1103,7 +1114,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
@@ -1143,7 +1156,9 @@
         <v>1</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
       <c r="H12" s="11">
         <v>1</v>
       </c>
@@ -1200,7 +1215,9 @@
         <v>1</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
       <c r="H14" s="11">
         <v>1</v>
       </c>
@@ -1238,7 +1255,9 @@
         <v>1</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
       <c r="H15" s="11">
         <v>1</v>
       </c>
@@ -1295,7 +1314,9 @@
         <v>1</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
       <c r="H17" s="11">
         <v>1</v>
       </c>
@@ -1333,7 +1354,9 @@
         <v>1</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
       <c r="H18" s="11">
         <v>1</v>
       </c>
@@ -1371,7 +1394,9 @@
         <v>1</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
       <c r="H19" s="11">
         <v>1</v>
       </c>
@@ -1409,7 +1434,9 @@
         <v>1</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
@@ -1436,69 +1463,73 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11">
-        <v>1</v>
-      </c>
-      <c r="L22" s="11">
-        <v>1</v>
-      </c>
-      <c r="M22" s="11">
-        <v>1</v>
-      </c>
-      <c r="N22" s="11">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -1532,11 +1563,11 @@
     </row>
     <row r="24" spans="1:15">
       <c r="B24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -1544,7 +1575,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11">
         <v>1</v>
@@ -1569,65 +1600,65 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1</v>
+      </c>
+      <c r="O25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
-        <v>1</v>
-      </c>
-      <c r="L26" s="11">
-        <v>1</v>
-      </c>
-      <c r="M26" s="11">
-        <v>1</v>
-      </c>
-      <c r="N26" s="11">
-        <v>1</v>
-      </c>
-      <c r="O26" s="11">
-        <v>1</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15">
       <c r="B27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1665,7 +1696,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11">
@@ -1703,7 +1734,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1715,13 +1746,13 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="11">
         <v>1</v>
       </c>
       <c r="J29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11">
         <v>1</v>
@@ -1730,22 +1761,26 @@
         <v>1</v>
       </c>
       <c r="M29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="11">
         <v>1</v>
       </c>
       <c r="O29" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11">
@@ -1755,80 +1790,76 @@
         <v>1</v>
       </c>
       <c r="J30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="11">
         <v>1</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="L30" s="11">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
       <c r="N30" s="11">
         <v>1</v>
       </c>
       <c r="O30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11">
+        <v>1</v>
+      </c>
+      <c r="O31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="B32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1</v>
-      </c>
-      <c r="N32" s="11">
-        <v>1</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="1:15">
       <c r="B33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
@@ -1866,7 +1897,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
@@ -1878,7 +1909,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11">
         <v>1</v>
@@ -1904,7 +1935,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11">
@@ -1934,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="11">
         <v>0</v>
@@ -1942,7 +1973,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="B36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1972,121 +2003,127 @@
         <v>1</v>
       </c>
       <c r="N36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>1</v>
-      </c>
-      <c r="M38" s="11">
-        <v>1</v>
-      </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="B40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11">
-        <v>1</v>
-      </c>
-      <c r="L40" s="11">
-        <v>1</v>
-      </c>
-      <c r="M40" s="11">
-        <v>1</v>
-      </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11">
-        <v>1</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="11">
         <v>1</v>
@@ -2114,7 +2151,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2145,59 +2182,59 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+      <c r="L43" s="11">
+        <v>1</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="B44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11">
-        <v>1</v>
-      </c>
-      <c r="L44" s="11">
-        <v>1</v>
-      </c>
-      <c r="M44" s="11">
-        <v>1</v>
-      </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11">
-        <v>1</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="9"/>
     </row>
     <row r="45" spans="1:15">
       <c r="B45" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11">
@@ -2209,7 +2246,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -2224,63 +2261,63 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11">
+        <v>1</v>
+      </c>
+      <c r="M46" s="11">
+        <v>1</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="B47" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11">
-        <v>1</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
-      <c r="L47" s="11">
-        <v>1</v>
-      </c>
-      <c r="M47" s="11">
-        <v>1</v>
-      </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11">
-        <v>1</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15">
       <c r="B48" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2312,7 +2349,7 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11">
@@ -2323,80 +2360,112 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="11">
+        <v>1</v>
+      </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
       <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="6" t="s">
+      <c r="O49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="12">
-        <f>SUM(C3:C48)/COUNT(C3:C48)</f>
-        <v>1</v>
-      </c>
-      <c r="D51" s="14">
-        <f t="shared" ref="D51:O51" si="0">SUM(D3:D49)/COUNT(D3:D49)</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="C52" s="12">
+        <f>SUM(C3:C49)/COUNT(C3:C49)</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" ref="D52:O52" si="0">SUM(D3:D50)/COUNT(D3:D50)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E52" s="14">
         <f t="shared" si="0"/>
-        <v>0.61764705882352944</v>
-      </c>
-      <c r="F51" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="F52" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="14">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H52" s="14">
         <f t="shared" si="0"/>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="I51" s="14">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I52" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J51" s="13">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="K51" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="14">
-        <f t="shared" si="0"/>
-        <v>0.93939393939393945</v>
-      </c>
-      <c r="M51" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96969696969696972</v>
-      </c>
-      <c r="N51" s="14">
+      <c r="J52" s="13">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="O51" s="14">
+      <c r="K52" s="14">
         <f t="shared" si="0"/>
-        <v>0.73529411764705888</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" si="0"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="M52" s="14">
+        <f t="shared" si="0"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="N52" s="14">
+        <f t="shared" si="0"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="O52" s="14">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="55" spans="2:15">
       <c r="B55"/>
     </row>
     <row r="56" spans="2:15">
       <c r="B56"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -974,7 +974,9 @@
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
@@ -1033,7 +1035,9 @@
       <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
@@ -1073,7 +1077,9 @@
       <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
@@ -1113,7 +1119,9 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
@@ -1155,7 +1163,9 @@
       <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
@@ -1214,7 +1224,9 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
@@ -1254,7 +1266,9 @@
       <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
@@ -1313,7 +1327,9 @@
       <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
@@ -1353,7 +1369,9 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
@@ -1393,7 +1411,9 @@
       <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
@@ -1433,7 +1453,9 @@
       <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
@@ -1534,8 +1556,12 @@
       <c r="E23" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
       <c r="H23" s="11">
         <v>1</v>
       </c>
@@ -1572,8 +1598,12 @@
       <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
       <c r="H24" s="11">
         <v>1</v>
       </c>
@@ -1610,8 +1640,12 @@
       <c r="E25" s="11">
         <v>1</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
       <c r="H25" s="11">
         <v>0</v>
       </c>
@@ -1667,8 +1701,12 @@
       <c r="E27" s="11">
         <v>0</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
       <c r="H27" s="11">
         <v>1</v>
       </c>
@@ -1705,8 +1743,12 @@
       <c r="E28" s="11">
         <v>0</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
       <c r="H28" s="11">
         <v>1</v>
       </c>
@@ -1743,8 +1785,12 @@
       <c r="E29" s="11">
         <v>0</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
       <c r="H29" s="11">
         <v>1</v>
       </c>
@@ -1781,8 +1827,12 @@
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
       <c r="H30" s="11">
         <v>0</v>
       </c>
@@ -1815,8 +1865,12 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
       <c r="H31" s="11">
         <v>0</v>
       </c>
@@ -1868,8 +1922,12 @@
       <c r="E33" s="11">
         <v>0</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
       <c r="H33" s="11">
         <v>1</v>
       </c>
@@ -1906,8 +1964,12 @@
       <c r="E34" s="11">
         <v>0</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
       <c r="H34" s="11">
         <v>1</v>
       </c>
@@ -1944,8 +2006,12 @@
       <c r="E35" s="11">
         <v>0</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
       <c r="H35" s="11">
         <v>0</v>
       </c>
@@ -1982,8 +2048,12 @@
       <c r="E36" s="11">
         <v>0</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
       <c r="H36" s="11">
         <v>0</v>
       </c>
@@ -2020,8 +2090,12 @@
       <c r="E37" s="11">
         <v>0</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
       <c r="H37" s="11">
         <v>0</v>
       </c>
@@ -2417,13 +2491,13 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="G52" s="14">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="0"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Output</t>
   </si>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +262,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Calibri"/>
@@ -397,7 +403,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,9 +428,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -775,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -929,7 +934,9 @@
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
       <c r="D6" s="11">
         <v>0</v>
       </c>
@@ -967,7 +974,9 @@
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
@@ -1028,7 +1037,9 @@
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
       <c r="D9" s="11">
         <v>1</v>
       </c>
@@ -1070,7 +1081,9 @@
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
@@ -1112,7 +1125,9 @@
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
       <c r="D11" s="11">
         <v>0</v>
       </c>
@@ -1217,7 +1232,9 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
@@ -1259,7 +1276,9 @@
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
@@ -1320,7 +1339,9 @@
       <c r="B17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
       <c r="D17" s="11">
         <v>1</v>
       </c>
@@ -1362,7 +1383,9 @@
       <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
       <c r="D18" s="11">
         <v>0</v>
       </c>
@@ -1404,7 +1427,9 @@
       <c r="B19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
       <c r="D19" s="11">
         <v>0</v>
       </c>
@@ -1446,7 +1471,9 @@
       <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
       <c r="D20" s="11">
         <v>0</v>
       </c>
@@ -1488,7 +1515,9 @@
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
       <c r="D21" s="11">
         <v>0</v>
       </c>
@@ -1549,7 +1578,9 @@
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
       <c r="D23" s="11">
         <v>1</v>
       </c>
@@ -1591,7 +1622,9 @@
       <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
       <c r="D24" s="11">
         <v>0</v>
       </c>
@@ -1633,7 +1666,9 @@
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
       <c r="D25" s="11">
         <v>1</v>
       </c>
@@ -1694,7 +1729,9 @@
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
       <c r="D27" s="11">
         <v>0</v>
       </c>
@@ -1736,7 +1773,9 @@
       <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
       <c r="D28" s="11">
         <v>0</v>
       </c>
@@ -1778,7 +1817,9 @@
       <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
       <c r="D29" s="11">
         <v>0</v>
       </c>
@@ -1820,7 +1861,9 @@
       <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
       <c r="D30" s="11">
         <v>0</v>
       </c>
@@ -1859,63 +1902,75 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>1</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="11">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11">
-        <v>1</v>
-      </c>
-      <c r="O31" s="11">
-        <v>1</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="B33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
       <c r="D33" s="11">
         <v>0</v>
       </c>
@@ -1955,9 +2010,11 @@
     </row>
     <row r="34" spans="1:15">
       <c r="B34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
       <c r="D34" s="11">
         <v>0</v>
       </c>
@@ -1971,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <v>1</v>
@@ -1997,9 +2054,11 @@
     </row>
     <row r="35" spans="1:15">
       <c r="B35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
       <c r="D35" s="11">
         <v>0</v>
       </c>
@@ -2031,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="11">
         <v>0</v>
@@ -2039,9 +2098,11 @@
     </row>
     <row r="36" spans="1:15">
       <c r="B36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
       <c r="D36" s="11">
         <v>0</v>
       </c>
@@ -2073,131 +2134,127 @@
         <v>1</v>
       </c>
       <c r="N36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="B37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11">
-        <v>1</v>
-      </c>
-      <c r="L37" s="11">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11">
-        <v>1</v>
-      </c>
-      <c r="N37" s="11">
-        <v>1</v>
-      </c>
-      <c r="O37" s="11">
-        <v>0</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
+      <c r="B38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="B39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11">
-        <v>1</v>
-      </c>
-      <c r="L39" s="11">
-        <v>1</v>
-      </c>
-      <c r="M39" s="11">
-        <v>1</v>
-      </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11">
-        <v>1</v>
-      </c>
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
+      <c r="B40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11">
+        <v>1</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
       <c r="D41" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="11">
         <v>1</v>
@@ -2225,9 +2282,11 @@
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
@@ -2256,61 +2315,65 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="B43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
-      <c r="L43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="11">
-        <v>1</v>
-      </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11">
-        <v>1</v>
-      </c>
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11">
+        <v>1</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="11">
+        <v>1</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="B45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
       <c r="D45" s="11">
         <v>0</v>
       </c>
@@ -2320,7 +2383,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -2335,63 +2398,63 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="B46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11">
-        <v>1</v>
-      </c>
-      <c r="L46" s="11">
-        <v>1</v>
-      </c>
-      <c r="M46" s="11">
-        <v>1</v>
-      </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11">
-        <v>0</v>
-      </c>
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
+      <c r="B47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11">
+        <v>1</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11">
+        <v>1</v>
+      </c>
+      <c r="L47" s="11">
+        <v>1</v>
+      </c>
+      <c r="M47" s="11">
+        <v>1</v>
+      </c>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
       <c r="B48" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2423,7 +2486,7 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11">
@@ -2434,112 +2497,80 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11">
-        <v>1</v>
-      </c>
+      <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="11">
-        <v>1</v>
-      </c>
-      <c r="L49" s="11">
-        <v>1</v>
-      </c>
-      <c r="M49" s="11">
-        <v>1</v>
-      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="6" t="s">
+      <c r="O49" s="11"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="12">
-        <f>SUM(C3:C49)/COUNT(C3:C49)</f>
-        <v>1</v>
-      </c>
-      <c r="D52" s="14">
-        <f t="shared" ref="D52:O52" si="0">SUM(D3:D50)/COUNT(D3:D50)</f>
+      <c r="C51" s="13">
+        <f>SUM(C3:C48)/COUNT(C3:C48)</f>
+        <v>0.625</v>
+      </c>
+      <c r="D51" s="12">
+        <f>SUM(D3:D49)/COUNT(D3:D49)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="E52" s="14">
-        <f t="shared" si="0"/>
+      <c r="E51" s="12">
+        <f>SUM(E3:E49)/COUNT(E3:E49)</f>
         <v>0.6</v>
       </c>
-      <c r="F52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="G52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="H52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I52" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J52" s="13">
-        <f t="shared" si="0"/>
+      <c r="F51" s="12">
+        <f>SUM(F3:F49)/COUNT(F3:F49)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="12">
+        <f>SUM(G3:G49)/COUNT(G3:G49)</f>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="H51" s="12">
+        <f>SUM(H3:H49)/COUNT(H3:H49)</f>
+        <v>0.73529411764705888</v>
+      </c>
+      <c r="I51" s="12">
+        <f>SUM(I3:I49)/COUNT(I3:I49)</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="12">
+        <f>SUM(J3:J49)/COUNT(J3:J49)</f>
+        <v>0.92</v>
+      </c>
+      <c r="K51" s="12">
+        <f>SUM(K3:K49)/COUNT(K3:K49)</f>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="L51" s="12">
+        <f>SUM(L3:L49)/COUNT(L3:L49)</f>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="M51" s="12">
+        <f>SUM(M3:M49)/COUNT(M3:M49)</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="N51" s="12">
+        <f>SUM(N3:N49)/COUNT(N3:N49)</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="K52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.97142857142857142</v>
-      </c>
-      <c r="L52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.91176470588235292</v>
-      </c>
-      <c r="M52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="N52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="O52" s="14">
-        <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="O51" s="12">
+        <f>SUM(O3:O49)/COUNT(O3:O49)</f>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54"/>
     </row>
     <row r="55" spans="2:15">
       <c r="B55"/>
     </row>
     <row r="56" spans="2:15">
       <c r="B56"/>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="B57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8680" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2424,7 +2424,9 @@
       <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
       <c r="D47" s="11">
         <v>0</v>
       </c>
@@ -2456,7 +2458,9 @@
       <c r="B48" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
       <c r="D48" s="11">
         <v>0</v>
       </c>
@@ -2488,7 +2492,9 @@
       <c r="B49" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="11"/>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
       <c r="D49" s="11">
         <v>0</v>
       </c>
@@ -2512,54 +2518,54 @@
       </c>
       <c r="C51" s="13">
         <f>SUM(C3:C48)/COUNT(C3:C48)</f>
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D51" s="12">
-        <f>SUM(D3:D49)/COUNT(D3:D49)</f>
+        <f t="shared" ref="D51:O51" si="0">SUM(D3:D49)/COUNT(D3:D49)</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="E51" s="12">
-        <f>SUM(E3:E49)/COUNT(E3:E49)</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="F51" s="12">
-        <f>SUM(F3:F49)/COUNT(F3:F49)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="G51" s="12">
-        <f>SUM(G3:G49)/COUNT(G3:G49)</f>
+        <f t="shared" si="0"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="H51" s="12">
-        <f>SUM(H3:H49)/COUNT(H3:H49)</f>
+        <f t="shared" si="0"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="I51" s="12">
-        <f>SUM(I3:I49)/COUNT(I3:I49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J51" s="12">
-        <f>SUM(J3:J49)/COUNT(J3:J49)</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="K51" s="12">
-        <f>SUM(K3:K49)/COUNT(K3:K49)</f>
+        <f t="shared" si="0"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="L51" s="12">
-        <f>SUM(L3:L49)/COUNT(L3:L49)</f>
+        <f t="shared" si="0"/>
         <v>0.91176470588235292</v>
       </c>
       <c r="M51" s="12">
-        <f>SUM(M3:M49)/COUNT(M3:M49)</f>
+        <f t="shared" si="0"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="N51" s="12">
-        <f>SUM(N3:N49)/COUNT(N3:N49)</f>
+        <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="O51" s="12">
-        <f>SUM(O3:O49)/COUNT(O3:O49)</f>
+        <f t="shared" si="0"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -2575,7 +2581,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8680" yWindow="0" windowWidth="23560" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Output</t>
   </si>
@@ -69,9 +69,6 @@
     <t>conditional loop</t>
   </si>
   <si>
-    <t>collection loop</t>
-  </si>
-  <si>
     <t>Array</t>
   </si>
   <si>
@@ -196,6 +193,15 @@
   </si>
   <si>
     <t>POSIX char class</t>
+  </si>
+  <si>
+    <t>array parameter</t>
+  </si>
+  <si>
+    <t>collection loop (array)</t>
+  </si>
+  <si>
+    <t>collection loop (subshell)</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,6 +398,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,7 +441,7 @@
     <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +451,8 @@
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -450,6 +462,8 @@
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
@@ -780,16 +794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -809,43 +823,43 @@
     </row>
     <row r="2" spans="1:15">
       <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -932,7 +946,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -1337,7 +1351,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -1381,7 +1395,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -1425,7 +1439,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="11">
         <v>0</v>
@@ -1469,7 +1483,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="11">
         <v>0</v>
@@ -1513,7 +1527,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -1664,7 +1678,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="B25" s="6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11">
         <v>0</v>
@@ -1708,7 +1722,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
@@ -1727,7 +1741,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="B27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
@@ -1771,7 +1785,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="11">
         <v>0</v>
@@ -1815,7 +1829,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="11">
         <v>0</v>
@@ -1859,7 +1873,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
@@ -1902,74 +1916,74 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
+      <c r="B31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1</v>
+      </c>
+      <c r="O31" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>1</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" s="11">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11">
-        <v>1</v>
-      </c>
-      <c r="N32" s="11">
-        <v>1</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="1:15">
       <c r="B33" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
@@ -2010,7 +2024,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" s="11">
         <v>0</v>
@@ -2028,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11">
         <v>1</v>
@@ -2054,7 +2068,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11">
         <v>0</v>
@@ -2090,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="11">
         <v>0</v>
@@ -2098,163 +2112,173 @@
     </row>
     <row r="36" spans="1:15">
       <c r="B36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>1</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="11">
-        <v>1</v>
-      </c>
-      <c r="L36" s="11">
-        <v>1</v>
-      </c>
-      <c r="M36" s="11">
-        <v>1</v>
-      </c>
-      <c r="N36" s="11">
-        <v>1</v>
-      </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="B39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="B38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="11">
-        <v>1</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
-        <v>1</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>1</v>
-      </c>
-      <c r="M38" s="11">
-        <v>1</v>
-      </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="B40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="11">
-        <v>1</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11">
-        <v>1</v>
-      </c>
-      <c r="L40" s="11">
-        <v>1</v>
-      </c>
-      <c r="M40" s="11">
-        <v>1</v>
-      </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11">
-        <v>1</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15">
       <c r="B41" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="11">
         <v>1</v>
@@ -2282,10 +2306,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -2315,64 +2339,64 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
+      <c r="B43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11">
+        <v>1</v>
+      </c>
+      <c r="L43" s="11">
+        <v>1</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="B44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="11">
-        <v>1</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11">
-        <v>1</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11">
-        <v>1</v>
-      </c>
-      <c r="L44" s="11">
-        <v>1</v>
-      </c>
-      <c r="M44" s="11">
-        <v>1</v>
-      </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11">
-        <v>1</v>
-      </c>
+      <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="9"/>
     </row>
     <row r="45" spans="1:15">
       <c r="B45" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
@@ -2383,7 +2407,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -2398,45 +2422,60 @@
       </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
+      <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11">
+        <v>1</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11">
+        <v>1</v>
+      </c>
+      <c r="M46" s="11">
+        <v>1</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="B47" s="6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C47" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="11">
         <v>0</v>
       </c>
       <c r="E47" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -2451,49 +2490,34 @@
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="B48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11">
-        <v>1</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11">
-        <v>1</v>
-      </c>
-      <c r="L48" s="11">
-        <v>1</v>
-      </c>
-      <c r="M48" s="11">
-        <v>1</v>
-      </c>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11">
-        <v>1</v>
-      </c>
+      <c r="A48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="11">
         <v>0</v>
@@ -2503,84 +2527,153 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="11">
+        <v>1</v>
+      </c>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
       <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="O49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11">
+        <v>1</v>
+      </c>
+      <c r="M50" s="11">
+        <v>1</v>
+      </c>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="13">
-        <f>SUM(C3:C48)/COUNT(C3:C48)</f>
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" ref="D51:O51" si="0">SUM(D3:D49)/COUNT(D3:D49)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E51" s="12">
+        <v>34</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="13">
+        <f>SUM(C3:C50)/COUNT(C3:C50)</f>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" ref="D53:O53" si="0">SUM(D3:D51)/COUNT(D3:D51)</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="E53" s="12">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F51" s="12">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="F53" s="12">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="G51" s="12">
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="H51" s="12">
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>0.73529411764705888</v>
-      </c>
-      <c r="I51" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="I53" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J51" s="12">
-        <f t="shared" si="0"/>
-        <v>0.92</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="0"/>
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="L51" s="12">
-        <f t="shared" si="0"/>
-        <v>0.91176470588235292</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" si="0"/>
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="N51" s="12">
+      <c r="J53" s="12">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="O51" s="12">
+      <c r="K53" s="12">
         <f t="shared" si="0"/>
-        <v>0.70588235294117652</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="L53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="O53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.72222222222222221</v>
+      </c>
     </row>
     <row r="56" spans="2:15">
       <c r="B56"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="8680" yWindow="0" windowWidth="23560" windowHeight="19260" tabRatio="500"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2673,7 +2673,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Output</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>collection loop (subshell)</t>
+  </si>
+  <si>
+    <t>Csh</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -806,7 +809,7 @@
     <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -820,8 +823,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -835,34 +839,37 @@
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,9 +886,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -924,8 +932,11 @@
       <c r="O4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -942,9 +953,10 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
@@ -965,12 +977,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11"/>
       <c r="L6" s="11">
         <v>1</v>
       </c>
@@ -978,13 +990,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1042,11 @@
       <c r="O7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1045,9 +1063,10 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1090,8 +1109,11 @@
       <c r="O9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="O10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1178,8 +1203,11 @@
       <c r="O11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1222,8 +1250,11 @@
       <c r="O12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1240,9 +1271,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1285,8 +1317,11 @@
       <c r="O14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1364,11 @@
       <c r="O15" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1347,9 +1385,10 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1392,8 +1431,11 @@
       <c r="O17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1436,8 +1478,11 @@
       <c r="O18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
@@ -1469,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
         <v>1</v>
@@ -1480,8 +1525,11 @@
       <c r="O19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
@@ -1501,31 +1549,34 @@
         <v>1</v>
       </c>
       <c r="H20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="11">
         <v>1</v>
       </c>
       <c r="O20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1541,20 +1592,18 @@
       <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
+      <c r="G21" s="11"/>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
       </c>
       <c r="K21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="11">
         <v>0</v>
@@ -1563,13 +1612,16 @@
         <v>0</v>
       </c>
       <c r="N21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1586,9 +1638,10 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1631,8 +1684,11 @@
       <c r="O23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1675,8 +1731,11 @@
       <c r="O24" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
@@ -1696,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -1719,8 +1778,11 @@
       <c r="O25" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1737,9 +1799,10 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
@@ -1782,8 +1845,11 @@
       <c r="O27" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="B28" s="6" t="s">
         <v>18</v>
       </c>
@@ -1826,8 +1892,11 @@
       <c r="O28" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
@@ -1870,8 +1939,11 @@
       <c r="O29" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
@@ -1891,31 +1963,34 @@
         <v>1</v>
       </c>
       <c r="H30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <v>1</v>
       </c>
       <c r="M30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
@@ -1935,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
         <v>1</v>
@@ -1958,8 +2033,11 @@
       <c r="O31" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1976,9 +2054,10 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
@@ -1994,9 +2073,7 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="11">
-        <v>1</v>
-      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="11">
         <v>1</v>
       </c>
@@ -2019,10 +2096,13 @@
         <v>1</v>
       </c>
       <c r="O33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
@@ -2038,9 +2118,7 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11">
-        <v>1</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="11">
         <v>1</v>
       </c>
@@ -2063,10 +2141,13 @@
         <v>1</v>
       </c>
       <c r="O34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
@@ -2082,14 +2163,12 @@
       <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -2107,10 +2186,13 @@
         <v>1</v>
       </c>
       <c r="O35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
@@ -2126,14 +2208,12 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
-        <v>1</v>
-      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -2148,13 +2228,16 @@
         <v>1</v>
       </c>
       <c r="N36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="B37" s="6" t="s">
         <v>22</v>
       </c>
@@ -2170,14 +2253,12 @@
       <c r="F37" s="11">
         <v>0</v>
       </c>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -2195,10 +2276,13 @@
         <v>1</v>
       </c>
       <c r="O37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2215,9 +2299,10 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
@@ -2231,27 +2316,30 @@
         <v>1</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11"/>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="11">
-        <v>1</v>
-      </c>
+      <c r="K39" s="11"/>
       <c r="L39" s="11">
         <v>1</v>
       </c>
       <c r="M39" s="11">
         <v>1</v>
       </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="11">
+        <v>1</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
@@ -2268,9 +2356,10 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="O40" s="8"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
@@ -2284,27 +2373,30 @@
         <v>1</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11"/>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="11">
-        <v>1</v>
-      </c>
+      <c r="K41" s="11"/>
       <c r="L41" s="11">
         <v>1</v>
       </c>
       <c r="M41" s="11">
         <v>1</v>
       </c>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41" s="11">
+        <v>1</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
@@ -2318,27 +2410,30 @@
         <v>1</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11"/>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="11">
-        <v>1</v>
-      </c>
+      <c r="K42" s="11"/>
       <c r="L42" s="11">
         <v>1</v>
       </c>
       <c r="M42" s="11">
         <v>1</v>
       </c>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42" s="11">
+        <v>1</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="B43" s="6" t="s">
         <v>27</v>
       </c>
@@ -2352,27 +2447,30 @@
         <v>1</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11"/>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11">
+        <v>1</v>
+      </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="11">
         <v>1</v>
       </c>
       <c r="M43" s="11">
         <v>1</v>
       </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="11">
+        <v>1</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2389,9 +2487,10 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="O44" s="8"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
@@ -2405,27 +2504,30 @@
         <v>1</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11">
-        <v>1</v>
-      </c>
-      <c r="I45" s="11"/>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11">
+        <v>1</v>
+      </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="11">
-        <v>1</v>
-      </c>
+      <c r="K45" s="11"/>
       <c r="L45" s="11">
         <v>1</v>
       </c>
       <c r="M45" s="11">
         <v>1</v>
       </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45" s="11">
+        <v>1</v>
+      </c>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="B46" s="6" t="s">
         <v>58</v>
       </c>
@@ -2439,27 +2541,30 @@
         <v>1</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11">
-        <v>1</v>
-      </c>
-      <c r="I46" s="11"/>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11">
+        <v>1</v>
+      </c>
       <c r="J46" s="11"/>
-      <c r="K46" s="11">
-        <v>1</v>
-      </c>
+      <c r="K46" s="11"/>
       <c r="L46" s="11">
         <v>1</v>
       </c>
       <c r="M46" s="11">
         <v>1</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="N46" s="11">
+        <v>1</v>
+      </c>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="B47" s="6" t="s">
         <v>29</v>
       </c>
@@ -2473,27 +2578,30 @@
         <v>1</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11"/>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
       <c r="J47" s="11"/>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
+      <c r="K47" s="11"/>
       <c r="L47" s="11">
         <v>1</v>
       </c>
       <c r="M47" s="11">
         <v>1</v>
       </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47" s="11">
+        <v>1</v>
+      </c>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -2510,9 +2618,10 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="O48" s="8"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="6" t="s">
         <v>52</v>
       </c>
@@ -2526,27 +2635,30 @@
         <v>0</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11">
-        <v>1</v>
-      </c>
-      <c r="I49" s="11"/>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11">
+        <v>1</v>
+      </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="11">
-        <v>1</v>
-      </c>
+      <c r="K49" s="11"/>
       <c r="L49" s="11">
         <v>1</v>
       </c>
       <c r="M49" s="11">
         <v>1</v>
       </c>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="N49" s="11">
+        <v>1</v>
+      </c>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
@@ -2560,27 +2672,30 @@
         <v>0</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11">
-        <v>1</v>
-      </c>
-      <c r="I50" s="11"/>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
       <c r="J50" s="11"/>
-      <c r="K50" s="11">
-        <v>1</v>
-      </c>
+      <c r="K50" s="11"/>
       <c r="L50" s="11">
         <v>1</v>
       </c>
       <c r="M50" s="11">
         <v>1</v>
       </c>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
+      <c r="N50" s="11">
+        <v>1</v>
+      </c>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51" s="6" t="s">
         <v>34</v>
       </c>
@@ -2594,7 +2709,9 @@
         <v>0</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -2603,8 +2720,9 @@
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="P51" s="11"/>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53" s="6" t="s">
         <v>54</v>
       </c>
@@ -2613,7 +2731,7 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" ref="D53:O53" si="0">SUM(D3:D51)/COUNT(D3:D51)</f>
+        <f t="shared" ref="D53:P53" si="0">SUM(D3:D51)/COUNT(D3:D51)</f>
         <v>0.27027027027027029</v>
       </c>
       <c r="E53" s="12">
@@ -2626,48 +2744,52 @@
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>0.96296296296296291</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="K53" s="12">
         <f t="shared" si="0"/>
-        <v>0.97222222222222221</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="L53" s="12">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="M53" s="12">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N53" s="12">
         <f t="shared" si="0"/>
-        <v>0.92592592592592593</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="O53" s="12">
         <f t="shared" si="0"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="0"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:16">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:16">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:16">
       <c r="B58"/>
     </row>
   </sheetData>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="0" windowWidth="23560" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="24700" yWindow="3560" windowWidth="23560" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Output</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>collection loop (subshell)</t>
+  </si>
+  <si>
+    <t>csh</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -806,7 +809,7 @@
     <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -820,8 +823,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
@@ -835,34 +839,37 @@
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,9 +886,10 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -924,8 +932,11 @@
       <c r="O4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -942,9 +953,10 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
@@ -965,12 +977,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11"/>
       <c r="L6" s="11">
         <v>1</v>
       </c>
@@ -978,13 +990,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1042,11 @@
       <c r="O7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1045,9 +1063,10 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1063,9 +1082,7 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
+      <c r="G9" s="11"/>
       <c r="H9" s="11">
         <v>1</v>
       </c>
@@ -1090,8 +1107,11 @@
       <c r="O9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1107,9 +1127,7 @@
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="11">
         <v>1</v>
       </c>
@@ -1134,8 +1152,11 @@
       <c r="O10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1151,9 +1172,7 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="11">
         <v>1</v>
       </c>
@@ -1178,8 +1197,11 @@
       <c r="O11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1195,9 +1217,7 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
+      <c r="G12" s="11"/>
       <c r="H12" s="11">
         <v>1</v>
       </c>
@@ -1222,8 +1242,11 @@
       <c r="O12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1240,9 +1263,10 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1258,9 +1282,7 @@
       <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="11">
         <v>1</v>
       </c>
@@ -1285,8 +1307,11 @@
       <c r="O14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1302,9 +1327,7 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
+      <c r="G15" s="11"/>
       <c r="H15" s="11">
         <v>1</v>
       </c>
@@ -1329,8 +1352,11 @@
       <c r="O15" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1347,9 +1373,10 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
@@ -1365,9 +1392,7 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
+      <c r="G17" s="11"/>
       <c r="H17" s="11">
         <v>1</v>
       </c>
@@ -1392,8 +1417,11 @@
       <c r="O17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" s="6" t="s">
         <v>50</v>
       </c>
@@ -1409,9 +1437,7 @@
       <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
+      <c r="G18" s="11"/>
       <c r="H18" s="11">
         <v>1</v>
       </c>
@@ -1436,8 +1462,11 @@
       <c r="O18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
@@ -1453,9 +1482,7 @@
       <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
+      <c r="G19" s="11"/>
       <c r="H19" s="11">
         <v>1</v>
       </c>
@@ -1469,10 +1496,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
         <v>1</v>
@@ -1480,8 +1507,11 @@
       <c r="O19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
@@ -1497,35 +1527,36 @@
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
+      <c r="G20" s="11"/>
       <c r="H20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="11">
         <v>1</v>
       </c>
       <c r="O20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
@@ -1541,20 +1572,18 @@
       <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
+      <c r="G21" s="11"/>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
       </c>
       <c r="K21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="11">
         <v>0</v>
@@ -1563,13 +1592,16 @@
         <v>0</v>
       </c>
       <c r="N21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1586,9 +1618,10 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
@@ -1604,9 +1637,7 @@
       <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
+      <c r="G23" s="11"/>
       <c r="H23" s="11">
         <v>1</v>
       </c>
@@ -1631,8 +1662,11 @@
       <c r="O23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
@@ -1648,9 +1682,7 @@
       <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="11">
         <v>1</v>
       </c>
@@ -1675,8 +1707,11 @@
       <c r="O24" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
@@ -1692,14 +1727,12 @@
       <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -1719,8 +1752,11 @@
       <c r="O25" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1737,9 +1773,10 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
@@ -1756,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
         <v>1</v>
@@ -1782,8 +1819,11 @@
       <c r="O27" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="B28" s="6" t="s">
         <v>18</v>
       </c>
@@ -1826,8 +1866,11 @@
       <c r="O28" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
@@ -1870,8 +1913,11 @@
       <c r="O29" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
@@ -1891,31 +1937,34 @@
         <v>1</v>
       </c>
       <c r="H30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <v>1</v>
       </c>
       <c r="M30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="B31" s="6" t="s">
         <v>59</v>
       </c>
@@ -1935,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
         <v>1</v>
@@ -1958,8 +2007,11 @@
       <c r="O31" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1976,9 +2028,10 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
@@ -1994,9 +2047,7 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="11">
-        <v>1</v>
-      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="11">
         <v>1</v>
       </c>
@@ -2019,10 +2070,13 @@
         <v>1</v>
       </c>
       <c r="O33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="B34" s="6" t="s">
         <v>18</v>
       </c>
@@ -2038,9 +2092,7 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11">
-        <v>1</v>
-      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="11">
         <v>1</v>
       </c>
@@ -2063,10 +2115,13 @@
         <v>1</v>
       </c>
       <c r="O34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
@@ -2082,14 +2137,12 @@
       <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -2107,10 +2160,13 @@
         <v>1</v>
       </c>
       <c r="O35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
@@ -2126,14 +2182,12 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
-        <v>1</v>
-      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -2148,13 +2202,16 @@
         <v>1</v>
       </c>
       <c r="N36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="B37" s="6" t="s">
         <v>22</v>
       </c>
@@ -2170,14 +2227,12 @@
       <c r="F37" s="11">
         <v>0</v>
       </c>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -2195,10 +2250,13 @@
         <v>1</v>
       </c>
       <c r="O37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2215,9 +2273,10 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
@@ -2232,26 +2291,27 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
       <c r="J39" s="11"/>
-      <c r="K39" s="11">
-        <v>1</v>
-      </c>
+      <c r="K39" s="11"/>
       <c r="L39" s="11">
         <v>1</v>
       </c>
       <c r="M39" s="11">
         <v>1</v>
       </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="11">
+        <v>1</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
@@ -2268,9 +2328,10 @@
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="O40" s="8"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="B41" s="6" t="s">
         <v>25</v>
       </c>
@@ -2285,26 +2346,27 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11">
-        <v>1</v>
-      </c>
-      <c r="I41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
       <c r="J41" s="11"/>
-      <c r="K41" s="11">
-        <v>1</v>
-      </c>
+      <c r="K41" s="11"/>
       <c r="L41" s="11">
         <v>1</v>
       </c>
       <c r="M41" s="11">
         <v>1</v>
       </c>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41" s="11">
+        <v>1</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
@@ -2319,26 +2381,27 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="11">
-        <v>1</v>
-      </c>
-      <c r="I42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
       <c r="J42" s="11"/>
-      <c r="K42" s="11">
-        <v>1</v>
-      </c>
+      <c r="K42" s="11"/>
       <c r="L42" s="11">
         <v>1</v>
       </c>
       <c r="M42" s="11">
         <v>1</v>
       </c>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42" s="11">
+        <v>1</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="B43" s="6" t="s">
         <v>27</v>
       </c>
@@ -2353,26 +2416,27 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11">
+        <v>1</v>
+      </c>
       <c r="J43" s="11"/>
-      <c r="K43" s="11">
-        <v>1</v>
-      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="11">
         <v>1</v>
       </c>
       <c r="M43" s="11">
         <v>1</v>
       </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="11">
+        <v>1</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2389,9 +2453,10 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="O44" s="8"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
@@ -2406,26 +2471,27 @@
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11">
-        <v>1</v>
-      </c>
-      <c r="I45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11">
+        <v>1</v>
+      </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="11">
-        <v>1</v>
-      </c>
+      <c r="K45" s="11"/>
       <c r="L45" s="11">
         <v>1</v>
       </c>
       <c r="M45" s="11">
         <v>1</v>
       </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45" s="11">
+        <v>1</v>
+      </c>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="B46" s="6" t="s">
         <v>58</v>
       </c>
@@ -2440,26 +2506,27 @@
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11">
-        <v>1</v>
-      </c>
-      <c r="I46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11">
+        <v>1</v>
+      </c>
       <c r="J46" s="11"/>
-      <c r="K46" s="11">
-        <v>1</v>
-      </c>
+      <c r="K46" s="11"/>
       <c r="L46" s="11">
         <v>1</v>
       </c>
       <c r="M46" s="11">
         <v>1</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="N46" s="11">
+        <v>1</v>
+      </c>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="B47" s="6" t="s">
         <v>29</v>
       </c>
@@ -2474,26 +2541,27 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
       <c r="J47" s="11"/>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
+      <c r="K47" s="11"/>
       <c r="L47" s="11">
         <v>1</v>
       </c>
       <c r="M47" s="11">
         <v>1</v>
       </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47" s="11">
+        <v>1</v>
+      </c>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -2510,9 +2578,10 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="O48" s="8"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="6" t="s">
         <v>52</v>
       </c>
@@ -2527,26 +2596,27 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11">
-        <v>1</v>
-      </c>
-      <c r="I49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11">
+        <v>1</v>
+      </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="11">
-        <v>1</v>
-      </c>
+      <c r="K49" s="11"/>
       <c r="L49" s="11">
         <v>1</v>
       </c>
       <c r="M49" s="11">
         <v>1</v>
       </c>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="N49" s="11">
+        <v>1</v>
+      </c>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
@@ -2561,26 +2631,27 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11">
-        <v>1</v>
-      </c>
-      <c r="I50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
       <c r="J50" s="11"/>
-      <c r="K50" s="11">
-        <v>1</v>
-      </c>
+      <c r="K50" s="11"/>
       <c r="L50" s="11">
         <v>1</v>
       </c>
       <c r="M50" s="11">
         <v>1</v>
       </c>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
+      <c r="N50" s="11">
+        <v>1</v>
+      </c>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51" s="6" t="s">
         <v>34</v>
       </c>
@@ -2603,8 +2674,9 @@
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="P51" s="11"/>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53" s="6" t="s">
         <v>54</v>
       </c>
@@ -2613,7 +2685,7 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" ref="D53:O53" si="0">SUM(D3:D51)/COUNT(D3:D51)</f>
+        <f t="shared" ref="D53:P53" si="0">SUM(D3:D51)/COUNT(D3:D51)</f>
         <v>0.27027027027027029</v>
       </c>
       <c r="E53" s="12">
@@ -2626,48 +2698,52 @@
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>0.96296296296296291</v>
+        <v>0.75</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="J53" s="12">
         <f t="shared" si="0"/>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="K53" s="12">
         <f t="shared" si="0"/>
-        <v>0.97222222222222221</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="L53" s="12">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="M53" s="12">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="N53" s="12">
         <f t="shared" si="0"/>
-        <v>0.92592592592592593</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="O53" s="12">
         <f t="shared" si="0"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" si="0"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:16">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:16">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:16">
       <c r="B58"/>
     </row>
   </sheetData>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1082,7 +1082,9 @@
       <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
@@ -1127,7 +1129,9 @@
       <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
@@ -1172,7 +1176,9 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
@@ -1217,7 +1223,9 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
       <c r="H12" s="11">
         <v>1</v>
       </c>
@@ -1282,7 +1290,9 @@
       <c r="F14" s="11">
         <v>1</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
       <c r="H14" s="11">
         <v>1</v>
       </c>
@@ -1327,7 +1337,9 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
       <c r="H15" s="11">
         <v>1</v>
       </c>
@@ -1392,7 +1404,9 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
       <c r="H17" s="11">
         <v>1</v>
       </c>
@@ -1437,7 +1451,9 @@
       <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
       <c r="H18" s="11">
         <v>1</v>
       </c>
@@ -1482,7 +1498,9 @@
       <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
       <c r="H19" s="11">
         <v>1</v>
       </c>
@@ -1527,7 +1545,9 @@
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
       <c r="H20" s="11">
         <v>1</v>
       </c>
@@ -1572,7 +1592,9 @@
       <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
       <c r="H21" s="11">
         <v>1</v>
       </c>
@@ -1637,7 +1659,9 @@
       <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
       <c r="H23" s="11">
         <v>1</v>
       </c>
@@ -1682,7 +1706,9 @@
       <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
       <c r="H24" s="11">
         <v>1</v>
       </c>
@@ -1727,7 +1753,9 @@
       <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
       <c r="H25" s="11">
         <v>1</v>
       </c>
@@ -2047,7 +2075,9 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-      <c r="G33" s="11"/>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
       <c r="H33" s="11">
         <v>1</v>
       </c>
@@ -2092,7 +2122,9 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
       <c r="H34" s="11">
         <v>1</v>
       </c>
@@ -2137,7 +2169,9 @@
       <c r="F35" s="11">
         <v>0</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
       <c r="H35" s="11">
         <v>1</v>
       </c>
@@ -2182,7 +2216,9 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
       <c r="H36" s="11">
         <v>1</v>
       </c>
@@ -2227,7 +2263,9 @@
       <c r="F37" s="11">
         <v>0</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
       <c r="H37" s="11">
         <v>1</v>
       </c>
@@ -2290,7 +2328,9 @@
         <v>1</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11">
         <v>1</v>
@@ -2345,7 +2385,9 @@
         <v>1</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
         <v>1</v>
@@ -2380,7 +2422,9 @@
         <v>1</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11">
         <v>1</v>
@@ -2415,7 +2459,9 @@
         <v>1</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11">
         <v>1</v>
@@ -2470,7 +2516,9 @@
         <v>1</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11">
         <v>1</v>
@@ -2505,7 +2553,9 @@
         <v>1</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11">
         <v>1</v>
@@ -2540,7 +2590,9 @@
         <v>1</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11">
         <v>0</v>
@@ -2595,7 +2647,9 @@
         <v>0</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11">
         <v>1</v>
@@ -2630,7 +2684,9 @@
         <v>0</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11">
         <v>1</v>
@@ -2665,7 +2721,9 @@
         <v>0</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -2698,7 +2756,7 @@
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -800,7 +800,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="11">
         <v>1</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="G53" s="12">
         <f t="shared" si="0"/>
-        <v>0.43243243243243246</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="0"/>

--- a/supporing_docs/script_tracker.xlsx
+++ b/supporing_docs/script_tracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Output</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>csh</t>
+  </si>
+  <si>
+    <t>select w pattern</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,6 +410,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -444,7 +455,7 @@
     <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -456,6 +467,7 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -467,6 +479,7 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
   </cellStyles>
@@ -797,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -982,7 +995,9 @@
       <c r="J6" s="11">
         <v>1</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
       <c r="L6" s="11">
         <v>1</v>
       </c>
@@ -1578,127 +1593,127 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>1</v>
-      </c>
-      <c r="K21" s="11">
-        <v>1</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <v>1</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2" t="s">
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="11">
-        <v>1</v>
-      </c>
-      <c r="J23" s="11">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11">
-        <v>1</v>
-      </c>
-      <c r="L23" s="11">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11">
-        <v>1</v>
-      </c>
-      <c r="N23" s="11">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11">
-        <v>1</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
       <c r="D24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -1739,124 +1754,124 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1</v>
+      </c>
+      <c r="O25" s="11">
+        <v>1</v>
+      </c>
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11">
-        <v>1</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11">
-        <v>1</v>
-      </c>
-      <c r="N25" s="11">
-        <v>1</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11">
+        <v>1</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1</v>
+      </c>
+      <c r="N26" s="11">
+        <v>1</v>
+      </c>
+      <c r="O26" s="11">
+        <v>1</v>
+      </c>
+      <c r="P26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="B27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11">
-        <v>1</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
-        <v>1</v>
-      </c>
-      <c r="L27" s="11">
-        <v>1</v>
-      </c>
-      <c r="M27" s="11">
-        <v>1</v>
-      </c>
-      <c r="N27" s="11">
-        <v>1</v>
-      </c>
-      <c r="O27" s="11">
-        <v>1</v>
-      </c>
-      <c r="P27" s="11">
-        <v>1</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16">
       <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="11">
         <v>0</v>
@@ -1868,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
@@ -1900,7 +1915,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="B29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="11">
         <v>0</v>
@@ -1947,7 +1962,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="B30" s="6" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
@@ -1968,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="11">
         <v>1</v>
       </c>
       <c r="K30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="11">
         <v>1</v>
@@ -1983,135 +1998,135 @@
         <v>1</v>
       </c>
       <c r="N30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="11">
         <v>1</v>
       </c>
       <c r="P30" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
+      <c r="L31" s="11">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <v>1</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="11">
-        <v>1</v>
-      </c>
-      <c r="L31" s="11">
-        <v>1</v>
-      </c>
-      <c r="M31" s="11">
-        <v>1</v>
-      </c>
-      <c r="N31" s="11">
-        <v>1</v>
-      </c>
-      <c r="O31" s="11">
-        <v>1</v>
-      </c>
-      <c r="P31" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <v>1</v>
+      </c>
+      <c r="O32" s="11">
+        <v>1</v>
+      </c>
+      <c r="P32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="B33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1</v>
-      </c>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
-      <c r="K33" s="11">
-        <v>1</v>
-      </c>
-      <c r="L33" s="11">
-        <v>1</v>
-      </c>
-      <c r="M33" s="11">
-        <v>1</v>
-      </c>
-      <c r="N33" s="11">
-        <v>1</v>
-      </c>
-      <c r="O33" s="11">
-        <v>1</v>
-      </c>
-      <c r="P33" s="11">
-        <v>0</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16">
       <c r="B34" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -2155,7 +2170,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="B35" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="11">
         <v>0</v>
@@ -2176,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -2202,7 +2217,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11">
         <v>0</v>
@@ -2241,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="11">
         <v>0</v>
@@ -2249,282 +2264,287 @@
     </row>
     <row r="37" spans="1:16">
       <c r="B37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="11">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11">
-        <v>1</v>
-      </c>
-      <c r="L37" s="11">
-        <v>1</v>
-      </c>
-      <c r="M37" s="11">
-        <v>1</v>
-      </c>
-      <c r="N37" s="11">
-        <v>1</v>
-      </c>
-      <c r="O37" s="11">
-        <v>1</v>
-      </c>
-      <c r="P37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
+      <c r="N38" s="11">
+        <v>1</v>
+      </c>
+      <c r="O38" s="11">
+        <v>1</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="11">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11">
-        <v>1</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11">
-        <v>1</v>
-      </c>
-      <c r="M39" s="11">
-        <v>1</v>
-      </c>
-      <c r="N39" s="11">
-        <v>1</v>
-      </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="9"/>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
+        <v>1</v>
+      </c>
+      <c r="L40" s="11">
+        <v>1</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1</v>
+      </c>
+      <c r="N40" s="11">
+        <v>1</v>
+      </c>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="B41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="11">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C41" s="11"/>
       <c r="D41" s="11">
         <v>0</v>
       </c>
-      <c r="E41" s="11">
-        <v>1</v>
-      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="11">
-        <v>1</v>
-      </c>
+      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11">
-        <v>1</v>
-      </c>
-      <c r="M41" s="11">
-        <v>1</v>
-      </c>
-      <c r="N41" s="11">
-        <v>1</v>
-      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="11">
-        <v>1</v>
-      </c>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16">
       <c r="B42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="11">
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="11">
-        <v>1</v>
-      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="11">
-        <v>1</v>
-      </c>
-      <c r="M42" s="11">
-        <v>1</v>
-      </c>
-      <c r="N42" s="11">
-        <v>1</v>
-      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="11">
-        <v>1</v>
-      </c>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="B43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="11">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11">
-        <v>1</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11">
-        <v>1</v>
-      </c>
-      <c r="M43" s="11">
-        <v>1</v>
-      </c>
-      <c r="N43" s="11">
-        <v>1</v>
-      </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11">
-        <v>1</v>
-      </c>
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="9"/>
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11">
+        <v>1</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11">
+        <v>1</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="11">
+        <v>1</v>
+      </c>
+      <c r="N44" s="11">
+        <v>1</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="B45" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="11">
         <v>1</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11">
         <v>1</v>
       </c>
       <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
+      <c r="K45" s="11">
+        <v>1</v>
+      </c>
       <c r="L45" s="11">
         <v>1</v>
       </c>
@@ -2541,27 +2561,29 @@
     </row>
     <row r="46" spans="1:16">
       <c r="B46" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
       </c>
       <c r="D46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="11">
         <v>1</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11">
         <v>1</v>
       </c>
       <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
       <c r="L46" s="11">
         <v>1</v>
       </c>
@@ -2577,65 +2599,67 @@
       </c>
     </row>
     <row r="47" spans="1:16">
-      <c r="B47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="11">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11">
-        <v>0</v>
-      </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11">
-        <v>1</v>
-      </c>
-      <c r="M47" s="11">
-        <v>1</v>
-      </c>
-      <c r="N47" s="11">
-        <v>1</v>
-      </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11">
-        <v>0</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="B48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11">
+        <v>1</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11">
+        <v>1</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1</v>
+      </c>
+      <c r="N48" s="11">
+        <v>1</v>
+      </c>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="B49" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
@@ -2644,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11">
@@ -2655,7 +2679,9 @@
         <v>1</v>
       </c>
       <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
       <c r="L49" s="11">
         <v>1</v>
       </c>
@@ -2670,18 +2696,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="1:16">
       <c r="B50" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C50" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="11">
         <v>0</v>
       </c>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11">
@@ -2689,10 +2715,12 @@
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
+      <c r="K50" s="11">
+        <v>1</v>
+      </c>
       <c r="L50" s="11">
         <v>1</v>
       </c>
@@ -2704,105 +2732,205 @@
       </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="B51" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="B52" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11">
+        <v>1</v>
+      </c>
+      <c r="L52" s="11">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11">
+        <v>1</v>
+      </c>
+      <c r="N52" s="11">
+        <v>1</v>
+      </c>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="B53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11">
+        <v>1</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11">
+        <v>1</v>
+      </c>
+      <c r="L53" s="11">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11">
+        <v>1</v>
+      </c>
+      <c r="N53" s="11">
+        <v>1</v>
+      </c>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="B54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="11">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="B53" s="6" t="s">
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11">
+        <v>1</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="13">
-        <f>SUM(C3:C50)/COUNT(C3:C50)</f>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="D53" s="12">
-        <f t="shared" ref="D53:P53" si="0">SUM(D3:D51)/COUNT(D3:D51)</f>
-        <v>0.27027027027027029</v>
-      </c>
-      <c r="E53" s="12">
+      <c r="C56" s="13">
+        <f>SUM(C3:C53)/COUNT(C3:C53)</f>
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" ref="D56:P56" si="0">SUM(D3:D54)/COUNT(D3:D54)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>0.59459459459459463</v>
-      </c>
-      <c r="F53" s="12">
+        <v>0.60526315789473684</v>
+      </c>
+      <c r="F56" s="12">
         <f t="shared" si="0"/>
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="G53" s="12">
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="G56" s="12">
         <f t="shared" si="0"/>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="H53" s="12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H56" s="12">
         <f t="shared" si="0"/>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="I53" s="12">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="I56" s="12">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="J53" s="12">
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="J56" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K56" s="12">
         <f t="shared" si="0"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="L53" s="12">
+        <v>0.97368421052631582</v>
+      </c>
+      <c r="L56" s="12">
         <f t="shared" si="0"/>
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="M53" s="12">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="M56" s="12">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="N53" s="12">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="N56" s="12">
         <f t="shared" si="0"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="O53" s="12">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="O56" s="12">
         <f t="shared" si="0"/>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="P53" s="12">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="P56" s="12">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="2:16">
-      <c r="B58"/>
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="B61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
